--- a/REGULAR/OJT/NEW DONE/MALUBAY, MELINDA.xlsx
+++ b/REGULAR/OJT/NEW DONE/MALUBAY, MELINDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE72C8EE-8162-4107-82B5-0C415862D87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98BB990-71BD-4D07-B682-8E9D0EB49D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="305">
   <si>
     <t>PERIOD</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>12/28,29/2022</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE</t>
   </si>
 </sst>
 </file>
@@ -3743,9 +3746,9 @@
   <dimension ref="A2:K692"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A558" activePane="bottomLeft"/>
+      <pane ySplit="3888" topLeftCell="A566" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K566" sqref="K566"/>
+      <selection pane="bottomLeft" activeCell="B572" sqref="B572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3908,7 +3911,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>194.01400000000001</v>
+        <v>195.26400000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3918,7 +3921,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>102.12599999999998</v>
+        <v>103.37599999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16699,19 +16702,25 @@
         <f t="shared" si="5"/>
         <v>44986</v>
       </c>
-      <c r="B571" s="20"/>
-      <c r="C571" s="13"/>
+      <c r="B571" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C571" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D571" s="39"/>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G571" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="20"/>
+      <c r="K571" s="49">
+        <v>45030</v>
+      </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
@@ -18608,7 +18617,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18700,6 +18709,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18721,6 +18733,10 @@
       <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>298.64</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/OJT/NEW DONE/MALUBAY, MELINDA.xlsx
+++ b/REGULAR/OJT/NEW DONE/MALUBAY, MELINDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98BB990-71BD-4D07-B682-8E9D0EB49D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27AB44A-40F3-493D-B003-F5FB4566DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="305">
   <si>
     <t>PERIOD</t>
   </si>
@@ -160,9 +160,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>MALUBAY, MELINDA</t>
-  </si>
-  <si>
     <t>1992</t>
   </si>
   <si>
@@ -950,6 +947,9 @@
   </si>
   <si>
     <t>TOTAL LEAVE</t>
+  </si>
+  <si>
+    <t>MALUBAY, MELINDA DIOKNO</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3365,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K692" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K693" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3743,12 +3743,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K692"/>
+  <dimension ref="A2:K693"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3888" topLeftCell="A566" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B572" sqref="B572"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="B573" sqref="B573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3771,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
@@ -3812,14 +3812,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
@@ -3928,7 +3928,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -4446,7 +4446,7 @@
         <v>34304</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -4678,7 +4678,7 @@
         <v>34608</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="13">
         <v>0.54199999999999993</v>
@@ -4701,7 +4701,7 @@
         <v>34639</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="13">
         <v>0.16699999999999982</v>
@@ -4724,7 +4724,7 @@
         <v>34669</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4830,7 +4830,7 @@
         <v>34790</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="13">
         <v>0.58299999999999996</v>
@@ -4853,7 +4853,7 @@
         <v>34820</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -4871,7 +4871,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -4880,7 +4880,7 @@
         <v>34851</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5177,7 +5177,7 @@
         <v>35247</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -5246,7 +5246,7 @@
         <v>35339</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="13">
         <v>0.66700000000000004</v>
@@ -5269,7 +5269,7 @@
         <v>35370</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -5294,7 +5294,7 @@
         <v>35400</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5337,7 +5337,7 @@
         <v>35431</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
@@ -5355,7 +5355,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -5364,7 +5364,7 @@
         <v>35462</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -5382,7 +5382,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -5391,7 +5391,7 @@
         <v>35490</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -5407,7 +5407,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -5416,7 +5416,7 @@
         <v>35521</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
@@ -5432,7 +5432,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -5441,7 +5441,7 @@
         <v>35551</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -5468,7 +5468,7 @@
         <v>35582</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -5492,7 +5492,7 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -5517,7 +5517,7 @@
         <v>35612</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
@@ -5541,7 +5541,7 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5629,7 +5629,7 @@
         <v>35735</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -5656,7 +5656,7 @@
         <v>35765</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="13">
         <v>1.25</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5720,7 +5720,7 @@
         <v>35827</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92" s="13">
         <v>1.25</v>
@@ -5738,7 +5738,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5810,7 +5810,7 @@
         <v>35947</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
@@ -5837,7 +5837,7 @@
         <v>35977</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C97" s="13">
         <v>1.25</v>
@@ -5861,7 +5861,7 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5907,7 +5907,7 @@
         <v>36039</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C100" s="13">
         <v>1.25</v>
@@ -5934,7 +5934,7 @@
         <v>36069</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" s="13">
         <v>1.25</v>
@@ -5961,7 +5961,7 @@
         <v>36100</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102" s="13">
         <v>1.25</v>
@@ -5986,7 +5986,7 @@
         <v>36130</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C103" s="13">
         <v>1.25</v>
@@ -6004,13 +6004,13 @@
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
       <c r="K103" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39">
@@ -6030,7 +6030,7 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="39">
@@ -6049,7 +6049,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6071,7 +6071,7 @@
         <v>36161</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -6119,7 +6119,7 @@
         <v>36220</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
@@ -6143,7 +6143,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -6157,13 +6157,13 @@
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
       <c r="K110" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39">
@@ -6186,7 +6186,7 @@
         <v>36251</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C112" s="13">
         <v>1.25</v>
@@ -6211,7 +6211,7 @@
         <v>36281</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
@@ -6229,13 +6229,13 @@
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="39">
@@ -6258,7 +6258,7 @@
         <v>36312</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C115" s="13">
         <v>1.25</v>
@@ -6276,13 +6276,13 @@
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
       <c r="K115" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="39">
@@ -6305,7 +6305,7 @@
         <v>36342</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C117" s="13">
         <v>1.25</v>
@@ -6329,7 +6329,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="39">
@@ -6352,7 +6352,7 @@
         <v>36373</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C119" s="13">
         <v>1.25</v>
@@ -6377,7 +6377,7 @@
         <v>36404</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -6402,7 +6402,7 @@
         <v>36434</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C121" s="13">
         <v>1.25</v>
@@ -6427,7 +6427,7 @@
         <v>36465</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C122" s="13">
         <v>1.25</v>
@@ -6452,7 +6452,7 @@
         <v>36495</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C123" s="13">
         <v>1.25</v>
@@ -6474,7 +6474,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="39">
@@ -6493,7 +6493,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -6515,7 +6515,7 @@
         <v>36526</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C126" s="13">
         <v>1.25</v>
@@ -6540,7 +6540,7 @@
         <v>36557</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C127" s="13">
         <v>1.25</v>
@@ -6564,7 +6564,7 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -6586,7 +6586,7 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="39">
@@ -6609,7 +6609,7 @@
         <v>36586</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C130" s="13">
         <v>1.25</v>
@@ -6634,7 +6634,7 @@
         <v>36617</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C131" s="13">
         <v>1.25</v>
@@ -6659,7 +6659,7 @@
         <v>36647</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C132" s="13">
         <v>1.25</v>
@@ -6684,7 +6684,7 @@
         <v>36678</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C133" s="13">
         <v>1.25</v>
@@ -6709,7 +6709,7 @@
         <v>36708</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C134" s="13">
         <v>1.25</v>
@@ -6734,7 +6734,7 @@
         <v>36739</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C135" s="13">
         <v>1.25</v>
@@ -6752,13 +6752,13 @@
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
       <c r="K135" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="39">
@@ -6802,7 +6802,7 @@
         <v>36800</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C138" s="13">
         <v>1.25</v>
@@ -6827,7 +6827,7 @@
         <v>36831</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C139" s="13">
         <v>1.25</v>
@@ -6852,7 +6852,7 @@
         <v>36861</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C140" s="13">
         <v>1.25</v>
@@ -6874,7 +6874,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="39">
@@ -6893,7 +6893,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -6915,7 +6915,7 @@
         <v>36892</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C143" s="13">
         <v>1.25</v>
@@ -6939,7 +6939,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="39"/>
@@ -6953,13 +6953,13 @@
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
       <c r="K144" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="39">
@@ -6982,7 +6982,7 @@
         <v>36923</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -7006,7 +7006,7 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="39"/>
@@ -7028,7 +7028,7 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="39">
@@ -7051,7 +7051,7 @@
         <v>36951</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C149" s="13">
         <v>1.25</v>
@@ -7075,7 +7075,7 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="39">
@@ -7098,7 +7098,7 @@
         <v>36982</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
@@ -7122,7 +7122,7 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C152" s="13"/>
       <c r="D152" s="39"/>
@@ -7144,7 +7144,7 @@
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="39">
@@ -7167,7 +7167,7 @@
         <v>37012</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
@@ -7191,7 +7191,7 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="39"/>
@@ -7207,13 +7207,13 @@
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
       <c r="K155" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="39">
@@ -7236,7 +7236,7 @@
         <v>37043</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C157" s="13">
         <v>1.25</v>
@@ -7261,7 +7261,7 @@
         <v>37073</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C158" s="13">
         <v>1.25</v>
@@ -7286,7 +7286,7 @@
         <v>37104</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C159" s="13">
         <v>1.25</v>
@@ -7311,7 +7311,7 @@
         <v>37135</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C160" s="13">
         <v>1.25</v>
@@ -7336,7 +7336,7 @@
         <v>37165</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C161" s="13">
         <v>1.25</v>
@@ -7361,7 +7361,7 @@
         <v>37196</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C162" s="13">
         <v>1.25</v>
@@ -7379,13 +7379,13 @@
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
       <c r="K162" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="39">
@@ -7408,7 +7408,7 @@
         <v>37226</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C164" s="13">
         <v>1.25</v>
@@ -7429,7 +7429,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -7451,7 +7451,7 @@
         <v>37257</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C166" s="13">
         <v>1.25</v>
@@ -7476,7 +7476,7 @@
         <v>37288</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C167" s="13">
         <v>1.25</v>
@@ -7501,7 +7501,7 @@
         <v>37316</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C168" s="13">
         <v>1.25</v>
@@ -7526,7 +7526,7 @@
         <v>37347</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C169" s="13">
         <v>1.25</v>
@@ -7544,13 +7544,13 @@
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
       <c r="K169" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="39">
@@ -7570,7 +7570,7 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C171" s="13"/>
       <c r="D171" s="39"/>
@@ -7584,7 +7584,7 @@
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
       <c r="K171" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -7593,7 +7593,7 @@
         <v>37377</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C172" s="13">
         <v>1.25</v>
@@ -7618,7 +7618,7 @@
         <v>37408</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C173" s="13">
         <v>1.25</v>
@@ -7642,7 +7642,7 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="39">
@@ -7665,7 +7665,7 @@
         <v>37438</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C175" s="13">
         <v>1.25</v>
@@ -7683,7 +7683,7 @@
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
       <c r="K175" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -7755,7 +7755,7 @@
         <v>37561</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C179" s="13">
         <v>1.25</v>
@@ -7773,7 +7773,7 @@
       <c r="I179" s="9"/>
       <c r="J179" s="11"/>
       <c r="K179" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -7782,7 +7782,7 @@
         <v>37591</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C180" s="13">
         <v>1.25</v>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -7846,7 +7846,7 @@
         <v>37653</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C183" s="13">
         <v>1.25</v>
@@ -7864,7 +7864,7 @@
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
       <c r="K183" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -7894,7 +7894,7 @@
         <v>37712</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C185" s="13">
         <v>1.25</v>
@@ -7910,7 +7910,7 @@
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
       <c r="K185" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -8045,7 +8045,7 @@
         <v>37926</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C192" s="13">
         <v>1.25</v>
@@ -8063,7 +8063,7 @@
       <c r="I192" s="9"/>
       <c r="J192" s="11"/>
       <c r="K192" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -8072,7 +8072,7 @@
         <v>37956</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C193" s="13">
         <v>1.25</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -8283,7 +8283,7 @@
         <v>38231</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C203" s="13">
         <v>1.25</v>
@@ -8301,13 +8301,13 @@
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
       <c r="K203" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="39">
@@ -8323,7 +8323,7 @@
       <c r="I204" s="9"/>
       <c r="J204" s="11"/>
       <c r="K204" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
@@ -8353,7 +8353,7 @@
         <v>38292</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C206" s="13">
         <v>1.25</v>
@@ -8369,13 +8369,13 @@
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
       <c r="K206" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C207" s="13"/>
       <c r="D207" s="39">
@@ -8391,7 +8391,7 @@
       <c r="I207" s="9"/>
       <c r="J207" s="11"/>
       <c r="K207" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
@@ -8417,7 +8417,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -8586,7 +8586,7 @@
         <v>38565</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C217" s="13">
         <v>1.25</v>
@@ -8602,7 +8602,7 @@
       <c r="I217" s="9"/>
       <c r="J217" s="11"/>
       <c r="K217" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
@@ -8653,7 +8653,7 @@
         <v>38657</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C220" s="13">
         <v>1.25</v>
@@ -8671,13 +8671,13 @@
       <c r="I220" s="9"/>
       <c r="J220" s="11"/>
       <c r="K220" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="39"/>
@@ -8693,7 +8693,7 @@
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
       <c r="K221" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
@@ -8702,7 +8702,7 @@
         <v>38687</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C222" s="13">
         <v>1.25</v>
@@ -8720,13 +8720,13 @@
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
       <c r="K222" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C223" s="13"/>
       <c r="D223" s="39">
@@ -8745,7 +8745,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -8767,7 +8767,7 @@
         <v>38718</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C225" s="13">
         <v>1.25</v>
@@ -8785,13 +8785,13 @@
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
       <c r="K225" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39">
@@ -8807,7 +8807,7 @@
       <c r="I226" s="9"/>
       <c r="J226" s="11"/>
       <c r="K226" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
@@ -8858,7 +8858,7 @@
         <v>38808</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C229" s="13">
         <v>1.25</v>
@@ -8876,7 +8876,7 @@
       <c r="I229" s="9"/>
       <c r="J229" s="11"/>
       <c r="K229" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
@@ -8885,7 +8885,7 @@
         <v>38838</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C230" s="13">
         <v>1.25</v>
@@ -8901,7 +8901,7 @@
       <c r="I230" s="9"/>
       <c r="J230" s="11"/>
       <c r="K230" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
@@ -8910,7 +8910,7 @@
         <v>38869</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C231" s="13">
         <v>1.25</v>
@@ -8977,7 +8977,7 @@
         <v>38961</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C234" s="13">
         <v>1.25</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B238" s="15"/>
       <c r="C238" s="13"/>
@@ -9316,7 +9316,7 @@
         <v>39417</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C250" s="13">
         <v>1.25</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -9527,7 +9527,7 @@
         <v>39692</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C260" s="13">
         <v>1.25</v>
@@ -9552,7 +9552,7 @@
         <v>39722</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C261" s="13">
         <v>1.25</v>
@@ -9576,7 +9576,7 @@
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39"/>
@@ -9592,13 +9592,13 @@
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
       <c r="K262" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="39"/>
@@ -9618,7 +9618,7 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C264" s="13"/>
       <c r="D264" s="39">
@@ -9641,7 +9641,7 @@
         <v>39753</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C265" s="13">
         <v>1.25</v>
@@ -9665,7 +9665,7 @@
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C266" s="13"/>
       <c r="D266" s="39">
@@ -9681,13 +9681,13 @@
       <c r="I266" s="9"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C267" s="13"/>
       <c r="D267" s="39"/>
@@ -9709,7 +9709,7 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C268" s="13"/>
       <c r="D268" s="39">
@@ -9732,7 +9732,7 @@
         <v>39783</v>
       </c>
       <c r="B269" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C269" s="13">
         <v>1.25</v>
@@ -9756,7 +9756,7 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C270" s="13"/>
       <c r="D270" s="39">
@@ -9775,7 +9775,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -9797,7 +9797,7 @@
         <v>39814</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C272" s="13">
         <v>1.25</v>
@@ -9821,7 +9821,7 @@
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="39">
@@ -9844,7 +9844,7 @@
         <v>39845</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -9868,7 +9868,7 @@
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39"/>
@@ -9884,13 +9884,13 @@
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
       <c r="K275" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="39"/>
@@ -9904,13 +9904,13 @@
       <c r="I276" s="9"/>
       <c r="J276" s="11"/>
       <c r="K276" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C277" s="13"/>
       <c r="D277" s="39">
@@ -9933,7 +9933,7 @@
         <v>39873</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C278" s="13">
         <v>1.25</v>
@@ -9958,7 +9958,7 @@
         <v>39904</v>
       </c>
       <c r="B279" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C279" s="13">
         <v>1.25</v>
@@ -9976,13 +9976,13 @@
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C280" s="13"/>
       <c r="D280" s="39"/>
@@ -9996,13 +9996,13 @@
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="39">
@@ -10025,7 +10025,7 @@
         <v>39934</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C282" s="13">
         <v>1.25</v>
@@ -10049,7 +10049,7 @@
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C283" s="13"/>
       <c r="D283" s="39">
@@ -10072,7 +10072,7 @@
         <v>39965</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C284" s="13">
         <v>1.25</v>
@@ -10097,7 +10097,7 @@
         <v>39995</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C285" s="13">
         <v>1.25</v>
@@ -10121,7 +10121,7 @@
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C286" s="13"/>
       <c r="D286" s="39">
@@ -10144,7 +10144,7 @@
         <v>40026</v>
       </c>
       <c r="B287" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C287" s="13">
         <v>1.25</v>
@@ -10169,7 +10169,7 @@
         <v>40057</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C288" s="13">
         <v>1.25</v>
@@ -10193,7 +10193,7 @@
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C289" s="13"/>
       <c r="D289" s="39">
@@ -10216,7 +10216,7 @@
         <v>40087</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C290" s="13">
         <v>1.25</v>
@@ -10240,7 +10240,7 @@
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C291" s="13"/>
       <c r="D291" s="39"/>
@@ -10262,7 +10262,7 @@
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="39">
@@ -10285,7 +10285,7 @@
         <v>40118</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C293" s="13">
         <v>1.25</v>
@@ -10303,13 +10303,13 @@
       <c r="I293" s="9"/>
       <c r="J293" s="11"/>
       <c r="K293" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C294" s="13"/>
       <c r="D294" s="39"/>
@@ -10331,7 +10331,7 @@
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="39">
@@ -10354,7 +10354,7 @@
         <v>40148</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C296" s="13">
         <v>1.25</v>
@@ -10372,13 +10372,13 @@
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
       <c r="K296" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="39">
@@ -10397,7 +10397,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -10419,7 +10419,7 @@
         <v>40179</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C299" s="13">
         <v>1.25</v>
@@ -10444,7 +10444,7 @@
         <v>40210</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C300" s="13">
         <v>1.25</v>
@@ -10468,7 +10468,7 @@
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="39"/>
@@ -10484,13 +10484,13 @@
       <c r="I301" s="9"/>
       <c r="J301" s="11"/>
       <c r="K301" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C302" s="13"/>
       <c r="D302" s="39"/>
@@ -10504,13 +10504,13 @@
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
       <c r="K302" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C303" s="13"/>
       <c r="D303" s="39">
@@ -10533,7 +10533,7 @@
         <v>40238</v>
       </c>
       <c r="B304" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C304" s="13">
         <v>1.25</v>
@@ -10558,7 +10558,7 @@
         <v>40269</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C305" s="13">
         <v>1.25</v>
@@ -10582,7 +10582,7 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C306" s="13"/>
       <c r="D306" s="39"/>
@@ -10598,13 +10598,13 @@
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C307" s="13"/>
       <c r="D307" s="39">
@@ -10627,7 +10627,7 @@
         <v>40299</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C308" s="13">
         <v>1.25</v>
@@ -10652,7 +10652,7 @@
         <v>40330</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C309" s="13">
         <v>1.25</v>
@@ -10670,13 +10670,13 @@
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
       <c r="K309" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39">
@@ -10699,7 +10699,7 @@
         <v>40360</v>
       </c>
       <c r="B311" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C311" s="13">
         <v>1.25</v>
@@ -10717,13 +10717,13 @@
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
       <c r="K311" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C312" s="13"/>
       <c r="D312" s="39"/>
@@ -10745,7 +10745,7 @@
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C313" s="13"/>
       <c r="D313" s="39">
@@ -10768,7 +10768,7 @@
         <v>40391</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C314" s="13">
         <v>1.25</v>
@@ -10792,7 +10792,7 @@
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C315" s="13"/>
       <c r="D315" s="39">
@@ -10815,7 +10815,7 @@
         <v>40422</v>
       </c>
       <c r="B316" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C316" s="13">
         <v>1.25</v>
@@ -10839,7 +10839,7 @@
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C317" s="13"/>
       <c r="D317" s="39"/>
@@ -10853,13 +10853,13 @@
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C318" s="13"/>
       <c r="D318" s="39">
@@ -10882,7 +10882,7 @@
         <v>40452</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C319" s="13">
         <v>1.25</v>
@@ -10900,13 +10900,13 @@
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
       <c r="K319" s="49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
@@ -10928,7 +10928,7 @@
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39">
@@ -10951,7 +10951,7 @@
         <v>40483</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C322" s="13">
         <v>1.25</v>
@@ -10975,7 +10975,7 @@
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C323" s="13"/>
       <c r="D323" s="39">
@@ -10991,13 +10991,13 @@
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
       <c r="K323" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C324" s="13"/>
       <c r="D324" s="39"/>
@@ -11019,7 +11019,7 @@
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C325" s="13"/>
       <c r="D325" s="39">
@@ -11042,7 +11042,7 @@
         <v>40513</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C326" s="13">
         <v>1.25</v>
@@ -11066,7 +11066,7 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C327" s="13"/>
       <c r="D327" s="39">
@@ -11086,7 +11086,7 @@
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="39"/>
@@ -11107,7 +11107,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -11129,7 +11129,7 @@
         <v>40544</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C330" s="13">
         <v>1.25</v>
@@ -11153,7 +11153,7 @@
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C331" s="13"/>
       <c r="D331" s="39"/>
@@ -11175,7 +11175,7 @@
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C332" s="13"/>
       <c r="D332" s="39">
@@ -11198,7 +11198,7 @@
         <v>40575</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C333" s="13">
         <v>1.25</v>
@@ -11216,13 +11216,13 @@
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
       <c r="K333" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C334" s="13"/>
       <c r="D334" s="39"/>
@@ -11244,7 +11244,7 @@
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C335" s="13"/>
       <c r="D335" s="39">
@@ -11267,7 +11267,7 @@
         <v>40603</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C336" s="13">
         <v>1.25</v>
@@ -11285,7 +11285,7 @@
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
       <c r="K336" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
@@ -11294,7 +11294,7 @@
         <v>40634</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C337" s="13">
         <v>1.25</v>
@@ -11312,7 +11312,7 @@
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
       <c r="K337" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
@@ -11321,7 +11321,7 @@
         <v>40664</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C338" s="13">
         <v>1.25</v>
@@ -11337,13 +11337,13 @@
       <c r="I338" s="9"/>
       <c r="J338" s="11"/>
       <c r="K338" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C339" s="13"/>
       <c r="D339" s="39"/>
@@ -11365,7 +11365,7 @@
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C340" s="13"/>
       <c r="D340" s="39">
@@ -11388,7 +11388,7 @@
         <v>40695</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C341" s="13">
         <v>1.25</v>
@@ -11412,7 +11412,7 @@
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C342" s="13"/>
       <c r="D342" s="39"/>
@@ -11434,7 +11434,7 @@
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C343" s="13"/>
       <c r="D343" s="39">
@@ -11457,7 +11457,7 @@
         <v>40725</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C344" s="13">
         <v>1.25</v>
@@ -11482,7 +11482,7 @@
         <v>40756</v>
       </c>
       <c r="B345" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C345" s="13">
         <v>1.25</v>
@@ -11506,7 +11506,7 @@
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C346" s="13"/>
       <c r="D346" s="39"/>
@@ -11528,7 +11528,7 @@
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C347" s="13"/>
       <c r="D347" s="39">
@@ -11551,7 +11551,7 @@
         <v>40787</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C348" s="13">
         <v>1.25</v>
@@ -11576,7 +11576,7 @@
         <v>40817</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C349" s="13">
         <v>1.25</v>
@@ -11600,7 +11600,7 @@
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C350" s="13"/>
       <c r="D350" s="39"/>
@@ -11622,7 +11622,7 @@
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C351" s="13"/>
       <c r="D351" s="39">
@@ -11645,7 +11645,7 @@
         <v>40848</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C352" s="13">
         <v>1.25</v>
@@ -11663,13 +11663,13 @@
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
       <c r="K352" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C353" s="13"/>
       <c r="D353" s="39">
@@ -11692,7 +11692,7 @@
         <v>40878</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C354" s="13">
         <v>1.25</v>
@@ -11716,7 +11716,7 @@
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C355" s="13"/>
       <c r="D355" s="39">
@@ -11735,7 +11735,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -11757,7 +11757,7 @@
         <v>40909</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C357" s="13">
         <v>1.25</v>
@@ -11781,7 +11781,7 @@
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C358" s="13"/>
       <c r="D358" s="39">
@@ -11804,7 +11804,7 @@
         <v>40940</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C359" s="13">
         <v>1.25</v>
@@ -11828,7 +11828,7 @@
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C360" s="13"/>
       <c r="D360" s="39">
@@ -11851,7 +11851,7 @@
         <v>40969</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C361" s="13">
         <v>1.25</v>
@@ -11867,13 +11867,13 @@
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
       <c r="K361" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C362" s="13"/>
       <c r="D362" s="39">
@@ -11896,7 +11896,7 @@
         <v>41000</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C363" s="13">
         <v>1.25</v>
@@ -11920,7 +11920,7 @@
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C364" s="13"/>
       <c r="D364" s="39"/>
@@ -11936,13 +11936,13 @@
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
       <c r="K364" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C365" s="13"/>
       <c r="D365" s="39">
@@ -11965,7 +11965,7 @@
         <v>41030</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C366" s="13">
         <v>1.25</v>
@@ -11989,7 +11989,7 @@
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C367" s="13"/>
       <c r="D367" s="39">
@@ -12012,7 +12012,7 @@
         <v>41061</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C368" s="13">
         <v>1.25</v>
@@ -12058,7 +12058,7 @@
         <v>41122</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C370" s="13">
         <v>1.25</v>
@@ -12076,7 +12076,7 @@
       <c r="I370" s="9"/>
       <c r="J370" s="11"/>
       <c r="K370" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
@@ -12148,7 +12148,7 @@
         <v>41244</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C374" s="13">
         <v>1.25</v>
@@ -12169,7 +12169,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -12191,7 +12191,7 @@
         <v>41275</v>
       </c>
       <c r="B376" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C376" s="13">
         <v>1.25</v>
@@ -12209,7 +12209,7 @@
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
@@ -12218,7 +12218,7 @@
         <v>41306</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C377" s="13">
         <v>1.25</v>
@@ -12242,7 +12242,7 @@
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C378" s="13"/>
       <c r="D378" s="39">
@@ -12264,7 +12264,7 @@
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C379" s="13"/>
       <c r="D379" s="39"/>
@@ -12278,13 +12278,13 @@
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
       <c r="K379" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C380" s="13"/>
       <c r="D380" s="39">
@@ -12307,7 +12307,7 @@
         <v>41334</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C381" s="13">
         <v>1.25</v>
@@ -12332,7 +12332,7 @@
         <v>41365</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C382" s="13">
         <v>1.25</v>
@@ -12356,7 +12356,7 @@
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C383" s="13"/>
       <c r="D383" s="39">
@@ -12379,7 +12379,7 @@
         <v>41395</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C384" s="13">
         <v>1.25</v>
@@ -12403,7 +12403,7 @@
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C385" s="13"/>
       <c r="D385" s="39"/>
@@ -12419,13 +12419,13 @@
       <c r="I385" s="9"/>
       <c r="J385" s="11"/>
       <c r="K385" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C386" s="13"/>
       <c r="D386" s="39">
@@ -12448,7 +12448,7 @@
         <v>41426</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C387" s="13">
         <v>1.25</v>
@@ -12473,7 +12473,7 @@
         <v>41456</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C388" s="13">
         <v>1.25</v>
@@ -12497,7 +12497,7 @@
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C389" s="13"/>
       <c r="D389" s="39">
@@ -12520,7 +12520,7 @@
         <v>41487</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C390" s="13">
         <v>1.25</v>
@@ -12544,7 +12544,7 @@
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C391" s="13"/>
       <c r="D391" s="39">
@@ -12567,7 +12567,7 @@
         <v>41518</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C392" s="13">
         <v>1.25</v>
@@ -12591,7 +12591,7 @@
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C393" s="13"/>
       <c r="D393" s="39"/>
@@ -12605,13 +12605,13 @@
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
       <c r="K393" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C394" s="13"/>
       <c r="D394" s="39">
@@ -12634,7 +12634,7 @@
         <v>41548</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C395" s="13">
         <v>1.25</v>
@@ -12658,7 +12658,7 @@
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C396" s="13"/>
       <c r="D396" s="39">
@@ -12681,7 +12681,7 @@
         <v>41579</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C397" s="13">
         <v>1.25</v>
@@ -12697,13 +12697,13 @@
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
       <c r="K397" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C398" s="13"/>
       <c r="D398" s="39">
@@ -12719,13 +12719,13 @@
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
       <c r="K398" s="49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C399" s="13"/>
       <c r="D399" s="39">
@@ -12748,7 +12748,7 @@
         <v>41609</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C400" s="13">
         <v>1.25</v>
@@ -12769,7 +12769,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -12791,7 +12791,7 @@
         <v>41640</v>
       </c>
       <c r="B402" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C402" s="13">
         <v>1.25</v>
@@ -12816,7 +12816,7 @@
         <v>41671</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C403" s="13">
         <v>1.25</v>
@@ -12834,13 +12834,13 @@
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
       <c r="K403" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C404" s="13"/>
       <c r="D404" s="39">
@@ -12863,7 +12863,7 @@
         <v>41699</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C405" s="13">
         <v>1.25</v>
@@ -12887,7 +12887,7 @@
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C406" s="13"/>
       <c r="D406" s="39">
@@ -12910,7 +12910,7 @@
         <v>41730</v>
       </c>
       <c r="B407" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C407" s="13">
         <v>1.25</v>
@@ -12928,13 +12928,13 @@
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
       <c r="K407" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C408" s="13"/>
       <c r="D408" s="39">
@@ -12957,7 +12957,7 @@
         <v>41760</v>
       </c>
       <c r="B409" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C409" s="13">
         <v>1.25</v>
@@ -12982,7 +12982,7 @@
         <v>41791</v>
       </c>
       <c r="B410" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C410" s="13">
         <v>1.25</v>
@@ -13007,7 +13007,7 @@
         <v>41821</v>
       </c>
       <c r="B411" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C411" s="13">
         <v>1.25</v>
@@ -13031,7 +13031,7 @@
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C412" s="13"/>
       <c r="D412" s="39">
@@ -13054,7 +13054,7 @@
         <v>41852</v>
       </c>
       <c r="B413" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C413" s="13">
         <v>1.25</v>
@@ -13079,7 +13079,7 @@
         <v>41883</v>
       </c>
       <c r="B414" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C414" s="13">
         <v>1.25</v>
@@ -13097,13 +13097,13 @@
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
       <c r="K414" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C415" s="13"/>
       <c r="D415" s="39"/>
@@ -13117,13 +13117,13 @@
       <c r="I415" s="9"/>
       <c r="J415" s="11"/>
       <c r="K415" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C416" s="13"/>
       <c r="D416" s="39">
@@ -13139,13 +13139,13 @@
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
       <c r="K416" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C417" s="13"/>
       <c r="D417" s="39"/>
@@ -13167,7 +13167,7 @@
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C418" s="13"/>
       <c r="D418" s="39">
@@ -13190,7 +13190,7 @@
         <v>41913</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C419" s="13">
         <v>1.25</v>
@@ -13208,13 +13208,13 @@
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
       <c r="K419" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C420" s="13"/>
       <c r="D420" s="39">
@@ -13237,7 +13237,7 @@
         <v>41944</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C421" s="13">
         <v>1.25</v>
@@ -13262,7 +13262,7 @@
         <v>41974</v>
       </c>
       <c r="B422" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C422" s="13">
         <v>1.25</v>
@@ -13280,13 +13280,13 @@
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
       <c r="K422" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C423" s="13"/>
       <c r="D423" s="39"/>
@@ -13300,13 +13300,13 @@
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
       <c r="K423" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C424" s="13"/>
       <c r="D424" s="39">
@@ -13325,7 +13325,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -13347,7 +13347,7 @@
         <v>42005</v>
       </c>
       <c r="B426" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C426" s="13">
         <v>1.25</v>
@@ -13372,7 +13372,7 @@
         <v>42036</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C427" s="13">
         <v>1.25</v>
@@ -13390,13 +13390,13 @@
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
       <c r="K427" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C428" s="13"/>
       <c r="D428" s="39">
@@ -13421,7 +13421,7 @@
         <v>42064</v>
       </c>
       <c r="B429" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C429" s="13">
         <v>1.25</v>
@@ -13439,13 +13439,13 @@
       <c r="I429" s="9"/>
       <c r="J429" s="11"/>
       <c r="K429" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C430" s="13"/>
       <c r="D430" s="39"/>
@@ -13461,13 +13461,13 @@
       <c r="I430" s="9"/>
       <c r="J430" s="11"/>
       <c r="K430" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C431" s="13"/>
       <c r="D431" s="39"/>
@@ -13483,13 +13483,13 @@
       <c r="I431" s="9"/>
       <c r="J431" s="11"/>
       <c r="K431" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C432" s="13"/>
       <c r="D432" s="39">
@@ -13507,7 +13507,7 @@
       <c r="I432" s="9"/>
       <c r="J432" s="11"/>
       <c r="K432" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.3">
@@ -13537,7 +13537,7 @@
         <v>42125</v>
       </c>
       <c r="B434" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C434" s="13">
         <v>1.25</v>
@@ -13583,7 +13583,7 @@
         <v>42186</v>
       </c>
       <c r="B436" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C436" s="13">
         <v>1.25</v>
@@ -13610,7 +13610,7 @@
         <v>42217</v>
       </c>
       <c r="B437" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C437" s="13">
         <v>1.25</v>
@@ -13637,7 +13637,7 @@
         <v>42248</v>
       </c>
       <c r="B438" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C438" s="13">
         <v>1.25</v>
@@ -13661,7 +13661,7 @@
     <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C439" s="13"/>
       <c r="D439" s="39"/>
@@ -13686,7 +13686,7 @@
         <v>42278</v>
       </c>
       <c r="B440" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C440" s="13">
         <v>1.25</v>
@@ -13710,7 +13710,7 @@
     <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C441" s="13"/>
       <c r="D441" s="39"/>
@@ -13735,7 +13735,7 @@
         <v>42309</v>
       </c>
       <c r="B442" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C442" s="13">
         <v>1.25</v>
@@ -13759,7 +13759,7 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C443" s="13"/>
       <c r="D443" s="39">
@@ -13775,7 +13775,7 @@
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
       <c r="K443" s="49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.3">
@@ -13784,7 +13784,7 @@
         <v>42339</v>
       </c>
       <c r="B444" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C444" s="13">
         <v>1.25</v>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -13829,7 +13829,7 @@
         <v>42370</v>
       </c>
       <c r="B446" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C446" s="13">
         <v>1.25</v>
@@ -13845,13 +13845,13 @@
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
       <c r="K446" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C447" s="13"/>
       <c r="D447" s="39"/>
@@ -13865,7 +13865,7 @@
       <c r="I447" s="9"/>
       <c r="J447" s="11"/>
       <c r="K447" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
@@ -13874,7 +13874,7 @@
         <v>42401</v>
       </c>
       <c r="B448" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C448" s="13">
         <v>1.25</v>
@@ -13892,13 +13892,13 @@
       <c r="I448" s="9"/>
       <c r="J448" s="11"/>
       <c r="K448" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C449" s="13"/>
       <c r="D449" s="39"/>
@@ -13912,7 +13912,7 @@
       <c r="I449" s="9"/>
       <c r="J449" s="11"/>
       <c r="K449" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.3">
@@ -13921,7 +13921,7 @@
         <v>42430</v>
       </c>
       <c r="B450" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C450" s="13">
         <v>1.25</v>
@@ -13948,7 +13948,7 @@
         <v>42461</v>
       </c>
       <c r="B451" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C451" s="13">
         <v>1.25</v>
@@ -13972,7 +13972,7 @@
     <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C452" s="13"/>
       <c r="D452" s="39">
@@ -13988,13 +13988,13 @@
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
       <c r="K452" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C453" s="13"/>
       <c r="D453" s="39">
@@ -14019,7 +14019,7 @@
         <v>42491</v>
       </c>
       <c r="B454" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C454" s="13">
         <v>1.25</v>
@@ -14037,13 +14037,13 @@
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
       <c r="K454" s="49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C455" s="13"/>
       <c r="D455" s="39"/>
@@ -14089,7 +14089,7 @@
         <v>42552</v>
       </c>
       <c r="B457" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C457" s="13">
         <v>1.25</v>
@@ -14116,7 +14116,7 @@
         <v>42583</v>
       </c>
       <c r="B458" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C458" s="13">
         <v>1.25</v>
@@ -14134,7 +14134,7 @@
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
       <c r="K458" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
@@ -14143,7 +14143,7 @@
         <v>42614</v>
       </c>
       <c r="B459" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C459" s="13">
         <v>1.25</v>
@@ -14161,13 +14161,13 @@
       <c r="I459" s="9"/>
       <c r="J459" s="11"/>
       <c r="K459" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C460" s="13"/>
       <c r="D460" s="39">
@@ -14183,7 +14183,7 @@
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
       <c r="K460" s="49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
@@ -14192,7 +14192,7 @@
         <v>42644</v>
       </c>
       <c r="B461" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C461" s="13">
         <v>1.25</v>
@@ -14219,7 +14219,7 @@
         <v>42675</v>
       </c>
       <c r="B462" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C462" s="13">
         <v>1.25</v>
@@ -14237,7 +14237,7 @@
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
       <c r="K462" s="49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.3">
@@ -14246,7 +14246,7 @@
         <v>42705</v>
       </c>
       <c r="B463" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C463" s="13">
         <v>1.25</v>
@@ -14264,13 +14264,13 @@
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
       <c r="K463" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C464" s="13"/>
       <c r="D464" s="39">
@@ -14286,12 +14286,12 @@
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
       <c r="K464" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -14355,7 +14355,7 @@
         <v>42795</v>
       </c>
       <c r="B468" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C468" s="13">
         <v>1.25</v>
@@ -14371,7 +14371,7 @@
       <c r="I468" s="9"/>
       <c r="J468" s="11"/>
       <c r="K468" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.3">
@@ -14380,7 +14380,7 @@
         <v>42826</v>
       </c>
       <c r="B469" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C469" s="13">
         <v>1.25</v>
@@ -14396,7 +14396,7 @@
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
       <c r="K469" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
@@ -14489,7 +14489,7 @@
         <v>42979</v>
       </c>
       <c r="B474" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C474" s="13">
         <v>1.25</v>
@@ -14505,13 +14505,13 @@
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
       <c r="K474" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C475" s="13"/>
       <c r="D475" s="39"/>
@@ -14531,7 +14531,7 @@
     <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C476" s="13"/>
       <c r="D476" s="39"/>
@@ -14577,7 +14577,7 @@
         <v>43040</v>
       </c>
       <c r="B478" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C478" s="13">
         <v>1.25</v>
@@ -14595,13 +14595,13 @@
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
       <c r="K478" s="49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C479" s="13"/>
       <c r="D479" s="39">
@@ -14623,7 +14623,7 @@
     <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C480" s="13"/>
       <c r="D480" s="39"/>
@@ -14645,7 +14645,7 @@
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C481" s="13"/>
       <c r="D481" s="39"/>
@@ -14670,7 +14670,7 @@
         <v>43070</v>
       </c>
       <c r="B482" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C482" s="13">
         <v>1.25</v>
@@ -14694,7 +14694,7 @@
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C483" s="13"/>
       <c r="D483" s="39">
@@ -14713,7 +14713,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -14735,7 +14735,7 @@
         <v>43101</v>
       </c>
       <c r="B485" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C485" s="13">
         <v>1.25</v>
@@ -14751,13 +14751,13 @@
       <c r="I485" s="9"/>
       <c r="J485" s="11"/>
       <c r="K485" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C486" s="13"/>
       <c r="D486" s="39"/>
@@ -14771,13 +14771,13 @@
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
       <c r="K486" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C487" s="13"/>
       <c r="D487" s="39"/>
@@ -14791,7 +14791,7 @@
       <c r="I487" s="9"/>
       <c r="J487" s="11"/>
       <c r="K487" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
@@ -14821,7 +14821,7 @@
         <v>43160</v>
       </c>
       <c r="B489" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C489" s="13">
         <v>1.25</v>
@@ -14839,7 +14839,7 @@
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
       <c r="K489" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
@@ -14848,7 +14848,7 @@
         <v>43191</v>
       </c>
       <c r="B490" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C490" s="13">
         <v>1.25</v>
@@ -14872,7 +14872,7 @@
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C491" s="13"/>
       <c r="D491" s="39"/>
@@ -14894,7 +14894,7 @@
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C492" s="13"/>
       <c r="D492" s="39"/>
@@ -14940,7 +14940,7 @@
         <v>43252</v>
       </c>
       <c r="B494" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C494" s="13">
         <v>1.25</v>
@@ -14988,7 +14988,7 @@
         <v>43313</v>
       </c>
       <c r="B496" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C496" s="13">
         <v>1.25</v>
@@ -15012,7 +15012,7 @@
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C497" s="13"/>
       <c r="D497" s="39">
@@ -15028,7 +15028,7 @@
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
       <c r="K497" s="49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
@@ -15058,7 +15058,7 @@
         <v>43374</v>
       </c>
       <c r="B499" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C499" s="13">
         <v>1.25</v>
@@ -15076,7 +15076,7 @@
       <c r="I499" s="9"/>
       <c r="J499" s="11"/>
       <c r="K499" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.3">
@@ -15102,11 +15102,11 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
-        <f t="shared" ref="A501:A573" si="5">EDATE(A500,1)</f>
+        <f t="shared" ref="A501:A574" si="5">EDATE(A500,1)</f>
         <v>43435</v>
       </c>
       <c r="B501" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C501" s="13">
         <v>1.25</v>
@@ -15130,7 +15130,7 @@
     <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C502" s="13"/>
       <c r="D502" s="39">
@@ -15152,7 +15152,7 @@
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C503" s="13"/>
       <c r="D503" s="39">
@@ -15171,7 +15171,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -15193,7 +15193,7 @@
         <v>43466</v>
       </c>
       <c r="B505" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C505" s="13">
         <v>1.25</v>
@@ -15209,7 +15209,7 @@
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
       <c r="K505" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
@@ -15218,7 +15218,7 @@
         <v>43497</v>
       </c>
       <c r="B506" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C506" s="13">
         <v>1.25</v>
@@ -15245,7 +15245,7 @@
         <v>43525</v>
       </c>
       <c r="B507" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C507" s="13">
         <v>1.25</v>
@@ -15269,7 +15269,7 @@
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C508" s="13"/>
       <c r="D508" s="39"/>
@@ -15294,7 +15294,7 @@
         <v>43556</v>
       </c>
       <c r="B509" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C509" s="13">
         <v>1.25</v>
@@ -15310,7 +15310,7 @@
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
       <c r="K509" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
@@ -15319,7 +15319,7 @@
         <v>43586</v>
       </c>
       <c r="B510" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C510" s="13">
         <v>1.25</v>
@@ -15343,7 +15343,7 @@
     <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C511" s="13"/>
       <c r="D511" s="39"/>
@@ -15368,7 +15368,7 @@
         <v>43617</v>
       </c>
       <c r="B512" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C512" s="13">
         <v>1.25</v>
@@ -15384,13 +15384,13 @@
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
       <c r="K512" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C513" s="13"/>
       <c r="D513" s="39"/>
@@ -15415,7 +15415,7 @@
         <v>43647</v>
       </c>
       <c r="B514" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C514" s="13">
         <v>1.25</v>
@@ -15463,7 +15463,7 @@
         <v>43709</v>
       </c>
       <c r="B516" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C516" s="13">
         <v>1.25</v>
@@ -15487,7 +15487,7 @@
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C517" s="13"/>
       <c r="D517" s="39">
@@ -15512,7 +15512,7 @@
         <v>43739</v>
       </c>
       <c r="B518" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C518" s="13">
         <v>1.25</v>
@@ -15530,13 +15530,13 @@
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
       <c r="K518" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C519" s="13"/>
       <c r="D519" s="39">
@@ -15552,7 +15552,7 @@
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
       <c r="K519" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
@@ -15561,7 +15561,7 @@
         <v>43770</v>
       </c>
       <c r="B520" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C520" s="13">
         <v>1.25</v>
@@ -15585,7 +15585,7 @@
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C521" s="13"/>
       <c r="D521" s="39"/>
@@ -15610,7 +15610,7 @@
         <v>43800</v>
       </c>
       <c r="B522" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C522" s="13">
         <v>1.25</v>
@@ -15628,12 +15628,12 @@
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
       <c r="K522" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15655,7 +15655,7 @@
         <v>43831</v>
       </c>
       <c r="B524" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C524" s="13">
         <v>1.25</v>
@@ -15671,13 +15671,13 @@
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
       <c r="K524" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C525" s="13"/>
       <c r="D525" s="39"/>
@@ -15691,7 +15691,7 @@
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
       <c r="K525" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
@@ -15700,7 +15700,7 @@
         <v>43862</v>
       </c>
       <c r="B526" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C526" s="13">
         <v>1.25</v>
@@ -15724,7 +15724,7 @@
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
@@ -15746,7 +15746,7 @@
     <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C528" s="13"/>
       <c r="D528" s="39"/>
@@ -15760,7 +15760,7 @@
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
       <c r="K528" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.3">
@@ -15958,7 +15958,7 @@
         <v>44166</v>
       </c>
       <c r="B538" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C538" s="13">
         <v>1.25</v>
@@ -15976,13 +15976,13 @@
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
       <c r="K538" s="49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C539" s="13"/>
       <c r="D539" s="39">
@@ -15998,12 +15998,12 @@
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
       <c r="K539" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -16046,7 +16046,7 @@
         <v>44228</v>
       </c>
       <c r="B542" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C542" s="13">
         <v>1.25</v>
@@ -16062,7 +16062,7 @@
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
       <c r="K542" s="49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
@@ -16155,7 +16155,7 @@
         <v>44378</v>
       </c>
       <c r="B547" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C547" s="13">
         <v>1.25</v>
@@ -16171,7 +16171,7 @@
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
       <c r="K547" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
@@ -16201,7 +16201,7 @@
         <v>44440</v>
       </c>
       <c r="B549" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C549" s="13">
         <v>1.25</v>
@@ -16228,7 +16228,7 @@
         <v>44470</v>
       </c>
       <c r="B550" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C550" s="13">
         <v>1.25</v>
@@ -16252,7 +16252,7 @@
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C551" s="13"/>
       <c r="D551" s="39">
@@ -16298,7 +16298,7 @@
         <v>44531</v>
       </c>
       <c r="B553" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C553" s="13">
         <v>1.25</v>
@@ -16316,12 +16316,12 @@
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
       <c r="K553" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16385,7 +16385,7 @@
         <v>44621</v>
       </c>
       <c r="B557" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C557" s="13">
         <v>1.25</v>
@@ -16401,7 +16401,7 @@
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
       <c r="K557" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
@@ -16431,7 +16431,7 @@
         <v>44682</v>
       </c>
       <c r="B559" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C559" s="13">
         <v>1.25</v>
@@ -16500,7 +16500,7 @@
         <v>44774</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C562" s="13">
         <v>1.25</v>
@@ -16569,7 +16569,7 @@
         <v>44866</v>
       </c>
       <c r="B565" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C565" s="13">
         <v>1.25</v>
@@ -16596,7 +16596,7 @@
         <v>44896</v>
       </c>
       <c r="B566" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C566" s="13">
         <v>1.25</v>
@@ -16614,13 +16614,13 @@
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
       <c r="K566" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C567" s="13"/>
       <c r="D567" s="39">
@@ -16639,7 +16639,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16703,7 +16703,7 @@
         <v>44986</v>
       </c>
       <c r="B571" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C571" s="13">
         <v>1.25</v>
@@ -16723,11 +16723,10 @@
       </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A572" s="40">
-        <f t="shared" si="5"/>
-        <v>45017</v>
-      </c>
-      <c r="B572" s="20"/>
+      <c r="A572" s="40"/>
+      <c r="B572" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C572" s="13"/>
       <c r="D572" s="39"/>
       <c r="E572" s="9"/>
@@ -16739,12 +16738,14 @@
       <c r="H572" s="39"/>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="20"/>
+      <c r="K572" s="49">
+        <v>44995</v>
+      </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
-        <f t="shared" si="5"/>
-        <v>45047</v>
+        <f>EDATE(A571,1)</f>
+        <v>45017</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16761,7 +16762,10 @@
       <c r="K573" s="20"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A574" s="40"/>
+      <c r="A574" s="40">
+        <f t="shared" si="5"/>
+        <v>45047</v>
+      </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
       <c r="D574" s="39"/>
@@ -16937,7 +16941,7 @@
       <c r="K584" s="20"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A585" s="48"/>
+      <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
@@ -16953,7 +16957,7 @@
       <c r="K585" s="20"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A586" s="40"/>
+      <c r="A586" s="48"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
       <c r="D586" s="39"/>
@@ -17145,7 +17149,7 @@
       <c r="K597" s="20"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A598" s="48"/>
+      <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
       <c r="D598" s="39"/>
@@ -17161,7 +17165,7 @@
       <c r="K598" s="20"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A599" s="40"/>
+      <c r="A599" s="48"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
       <c r="D599" s="39"/>
@@ -17353,7 +17357,7 @@
       <c r="K610" s="20"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A611" s="48"/>
+      <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
       <c r="D611" s="39"/>
@@ -17369,7 +17373,7 @@
       <c r="K611" s="20"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A612" s="40"/>
+      <c r="A612" s="48"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
       <c r="D612" s="39"/>
@@ -17561,7 +17565,7 @@
       <c r="K623" s="20"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A624" s="48"/>
+      <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
       <c r="D624" s="39"/>
@@ -17577,7 +17581,7 @@
       <c r="K624" s="20"/>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A625" s="40"/>
+      <c r="A625" s="48"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
       <c r="D625" s="39"/>
@@ -18015,7 +18019,10 @@
       <c r="D652" s="39"/>
       <c r="E652" s="9"/>
       <c r="F652" s="20"/>
-      <c r="G652" s="13"/>
+      <c r="G652" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H652" s="39"/>
       <c r="I652" s="9"/>
       <c r="J652" s="11"/>
@@ -18418,10 +18425,7 @@
       <c r="D683" s="39"/>
       <c r="E683" s="9"/>
       <c r="F683" s="20"/>
-      <c r="G683" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G683" s="13"/>
       <c r="H683" s="39"/>
       <c r="I683" s="9"/>
       <c r="J683" s="11"/>
@@ -18556,20 +18560,36 @@
       <c r="K691" s="20"/>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A692" s="41"/>
-      <c r="B692" s="15"/>
-      <c r="C692" s="42"/>
-      <c r="D692" s="43"/>
-      <c r="E692" s="51"/>
-      <c r="F692" s="15"/>
-      <c r="G692" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H692" s="43"/>
-      <c r="I692" s="51"/>
-      <c r="J692" s="12"/>
-      <c r="K692" s="15"/>
+      <c r="A692" s="40"/>
+      <c r="B692" s="20"/>
+      <c r="C692" s="13"/>
+      <c r="D692" s="39"/>
+      <c r="E692" s="9"/>
+      <c r="F692" s="20"/>
+      <c r="G692" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H692" s="39"/>
+      <c r="I692" s="9"/>
+      <c r="J692" s="11"/>
+      <c r="K692" s="20"/>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A693" s="41"/>
+      <c r="B693" s="15"/>
+      <c r="C693" s="42"/>
+      <c r="D693" s="43"/>
+      <c r="E693" s="51"/>
+      <c r="F693" s="15"/>
+      <c r="G693" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H693" s="43"/>
+      <c r="I693" s="51"/>
+      <c r="J693" s="12"/>
+      <c r="K693" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18710,7 +18730,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>

--- a/REGULAR/OJT/NEW DONE/MALUBAY, MELINDA.xlsx
+++ b/REGULAR/OJT/NEW DONE/MALUBAY, MELINDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27AB44A-40F3-493D-B003-F5FB4566DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF1F0F5-ACAC-4CFC-8774-3728527EA64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="306">
   <si>
     <t>PERIOD</t>
   </si>
@@ -937,9 +937,6 @@
     <t>BDAY 3/9/2022</t>
   </si>
   <si>
-    <t>COOP</t>
-  </si>
-  <si>
     <t>PERMANENT</t>
   </si>
   <si>
@@ -950,6 +947,12 @@
   </si>
   <si>
     <t>MALUBAY, MELINDA DIOKNO</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>COOP/CTO</t>
   </si>
 </sst>
 </file>
@@ -3747,8 +3750,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3888" topLeftCell="A566" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B573" sqref="B573"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B574" sqref="B574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3771,7 +3774,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
@@ -3791,7 +3794,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="54" t="s">
+        <v>304</v>
+      </c>
       <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3812,14 +3817,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
@@ -3921,7 +3926,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>103.37599999999998</v>
+        <v>102.37599999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16614,7 +16619,7 @@
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
       <c r="K566" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
@@ -16747,7 +16752,9 @@
         <f>EDATE(A571,1)</f>
         <v>45017</v>
       </c>
-      <c r="B573" s="20"/>
+      <c r="B573" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C573" s="13"/>
       <c r="D573" s="39"/>
       <c r="E573" s="9"/>
@@ -16756,10 +16763,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H573" s="39"/>
+      <c r="H573" s="39">
+        <v>1</v>
+      </c>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="20"/>
+      <c r="K573" s="49">
+        <v>45033</v>
+      </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
@@ -18605,7 +18616,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -18730,7 +18741,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -18755,7 +18766,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>298.64</v>
+        <v>297.64</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/NEW DONE/MALUBAY, MELINDA.xlsx
+++ b/REGULAR/OJT/NEW DONE/MALUBAY, MELINDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF1F0F5-ACAC-4CFC-8774-3728527EA64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAEC332-EB6D-4ABF-9D9F-0F1CB92E6FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="306">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3351,7 +3351,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3749,9 +3749,9 @@
   <dimension ref="A2:K693"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A566" activePane="bottomLeft"/>
+      <pane ySplit="3888" topLeftCell="A573" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B574" sqref="B574"/>
+      <selection pane="bottomLeft" activeCell="D579" sqref="D579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3916,7 +3916,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>195.26400000000001</v>
+        <v>197.76400000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3926,7 +3926,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>102.37599999999998</v>
+        <v>103.87599999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16755,13 +16755,15 @@
       <c r="B573" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C573" s="13"/>
+      <c r="C573" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D573" s="39"/>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G573" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H573" s="39">
         <v>1</v>
@@ -16778,13 +16780,15 @@
         <v>45047</v>
       </c>
       <c r="B574" s="20"/>
-      <c r="C574" s="13"/>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D574" s="39"/>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G574" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H574" s="39"/>
       <c r="I574" s="9"/>
@@ -16792,8 +16796,12 @@
       <c r="K574" s="20"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A575" s="40"/>
-      <c r="B575" s="20"/>
+      <c r="A575" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B575" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
       <c r="E575" s="9"/>
@@ -16802,13 +16810,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H575" s="39"/>
+      <c r="H575" s="39">
+        <v>1</v>
+      </c>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="20"/>
+      <c r="K575" s="49">
+        <v>45079</v>
+      </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A576" s="40"/>
+      <c r="A576" s="40">
+        <v>45108</v>
+      </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
       <c r="D576" s="39"/>
@@ -16824,7 +16838,9 @@
       <c r="K576" s="20"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A577" s="40"/>
+      <c r="A577" s="40">
+        <v>45139</v>
+      </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
       <c r="D577" s="39"/>
@@ -16840,7 +16856,9 @@
       <c r="K577" s="20"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A578" s="40"/>
+      <c r="A578" s="40">
+        <v>45170</v>
+      </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
       <c r="D578" s="39"/>
@@ -16856,7 +16874,9 @@
       <c r="K578" s="20"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A579" s="40"/>
+      <c r="A579" s="40">
+        <v>45200</v>
+      </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
       <c r="D579" s="39"/>
@@ -16872,7 +16892,9 @@
       <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A580" s="40"/>
+      <c r="A580" s="40">
+        <v>45231</v>
+      </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
@@ -16888,7 +16910,9 @@
       <c r="K580" s="20"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A581" s="40"/>
+      <c r="A581" s="40">
+        <v>45261</v>
+      </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
       <c r="D581" s="39"/>
@@ -16904,7 +16928,9 @@
       <c r="K581" s="20"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A582" s="40"/>
+      <c r="A582" s="40">
+        <v>45292</v>
+      </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
       <c r="D582" s="39"/>
@@ -16920,7 +16946,9 @@
       <c r="K582" s="20"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A583" s="40"/>
+      <c r="A583" s="40">
+        <v>45323</v>
+      </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
       <c r="D583" s="39"/>
@@ -16936,7 +16964,9 @@
       <c r="K583" s="20"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A584" s="40"/>
+      <c r="A584" s="40">
+        <v>45352</v>
+      </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
       <c r="D584" s="39"/>
@@ -16952,7 +16982,9 @@
       <c r="K584" s="20"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A585" s="40"/>
+      <c r="A585" s="40">
+        <v>45383</v>
+      </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
@@ -16968,7 +17000,9 @@
       <c r="K585" s="20"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A586" s="48"/>
+      <c r="A586" s="40">
+        <v>45413</v>
+      </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
       <c r="D586" s="39"/>
@@ -16984,7 +17018,9 @@
       <c r="K586" s="20"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A587" s="40"/>
+      <c r="A587" s="40">
+        <v>45444</v>
+      </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
       <c r="D587" s="39"/>
@@ -17000,7 +17036,9 @@
       <c r="K587" s="20"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A588" s="40"/>
+      <c r="A588" s="40">
+        <v>45474</v>
+      </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
       <c r="D588" s="39"/>
@@ -17016,7 +17054,9 @@
       <c r="K588" s="20"/>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A589" s="40"/>
+      <c r="A589" s="40">
+        <v>45505</v>
+      </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
       <c r="D589" s="39"/>
@@ -17032,7 +17072,9 @@
       <c r="K589" s="20"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A590" s="40"/>
+      <c r="A590" s="40">
+        <v>45536</v>
+      </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
       <c r="D590" s="39"/>
@@ -17048,7 +17090,9 @@
       <c r="K590" s="20"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A591" s="40"/>
+      <c r="A591" s="40">
+        <v>45566</v>
+      </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
       <c r="D591" s="39"/>
@@ -17064,7 +17108,9 @@
       <c r="K591" s="20"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A592" s="40"/>
+      <c r="A592" s="40">
+        <v>45597</v>
+      </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
       <c r="D592" s="39"/>
@@ -17080,7 +17126,9 @@
       <c r="K592" s="20"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A593" s="40"/>
+      <c r="A593" s="40">
+        <v>45627</v>
+      </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
       <c r="D593" s="39"/>
@@ -17096,7 +17144,9 @@
       <c r="K593" s="20"/>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A594" s="40"/>
+      <c r="A594" s="40">
+        <v>45658</v>
+      </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
       <c r="D594" s="39"/>
@@ -17112,7 +17162,9 @@
       <c r="K594" s="20"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A595" s="40"/>
+      <c r="A595" s="40">
+        <v>45689</v>
+      </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
       <c r="D595" s="39"/>
@@ -17128,7 +17180,9 @@
       <c r="K595" s="20"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A596" s="40"/>
+      <c r="A596" s="40">
+        <v>45717</v>
+      </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
       <c r="D596" s="39"/>
@@ -17144,7 +17198,9 @@
       <c r="K596" s="20"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A597" s="40"/>
+      <c r="A597" s="40">
+        <v>45748</v>
+      </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
       <c r="D597" s="39"/>
@@ -17160,7 +17216,9 @@
       <c r="K597" s="20"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A598" s="40"/>
+      <c r="A598" s="40">
+        <v>45778</v>
+      </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
       <c r="D598" s="39"/>
@@ -17176,7 +17234,9 @@
       <c r="K598" s="20"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A599" s="48"/>
+      <c r="A599" s="40">
+        <v>45809</v>
+      </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
       <c r="D599" s="39"/>
@@ -18766,7 +18826,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>297.64</v>
+        <v>301.64</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
